--- a/consolidated.xlsx
+++ b/consolidated.xlsx
@@ -5,25 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\pypi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C06853-DC5D-4DB9-8099-A71F1B4F206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B2E5B3-41FA-4701-8FDB-3A331567B136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidated Packages'!$A$1:$K$529</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="2590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6485" uniqueCount="2811">
   <si>
     <t>Nombre</t>
   </si>
@@ -7793,13 +7807,676 @@
   </si>
   <si>
     <t>Zstandard bindings for Python</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Statsmodels</t>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>2.19.0</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Dask</t>
+  </si>
+  <si>
+    <t>2025.7.0</t>
+  </si>
+  <si>
+    <t>Joblib</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>3.10.0</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>OptBinning</t>
+  </si>
+  <si>
+    <t>0.20.1</t>
+  </si>
+  <si>
+    <t>pmdarima</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>PuLP</t>
+  </si>
+  <si>
+    <t>3.16.0</t>
+  </si>
+  <si>
+    <t>Scikit-surprise</t>
+  </si>
+  <si>
+    <t>SciPy</t>
+  </si>
+  <si>
+    <t>1.16.0</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>PyCaret</t>
+  </si>
+  <si>
+    <t>CustomTkinter</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>20.27.1</t>
+  </si>
+  <si>
+    <t>ttkbootstrap</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
+  </si>
+  <si>
+    <t>auto-py-to-exe</t>
+  </si>
+  <si>
+    <t>2.46.0</t>
+  </si>
+  <si>
+    <t>polars</t>
+  </si>
+  <si>
+    <t>aiodns</t>
+  </si>
+  <si>
+    <t>aiohttp</t>
+  </si>
+  <si>
+    <t>3.12.14</t>
+  </si>
+  <si>
+    <t>aiomultiprocess</t>
+  </si>
+  <si>
+    <t>aiosignal</t>
+  </si>
+  <si>
+    <t>1.16.4</t>
+  </si>
+  <si>
+    <t>aniso</t>
+  </si>
+  <si>
+    <t>async-timeout</t>
+  </si>
+  <si>
+    <t>5.0.1</t>
+  </si>
+  <si>
+    <t>25.3.0</t>
+  </si>
+  <si>
+    <t>bc-python-hcl</t>
+  </si>
+  <si>
+    <t>beautifulsoup</t>
+  </si>
+  <si>
+    <t>4.13.4</t>
+  </si>
+  <si>
+    <t>boto</t>
+  </si>
+  <si>
+    <t>1.39.6</t>
+  </si>
+  <si>
+    <t>1.39.9</t>
+  </si>
+  <si>
+    <t>cached-property</t>
+  </si>
+  <si>
+    <t>6.1.0</t>
+  </si>
+  <si>
+    <t>2025.7.14</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>checkov</t>
+  </si>
+  <si>
+    <t>3.2.451</t>
+  </si>
+  <si>
+    <t>8.1.7</t>
+  </si>
+  <si>
+    <t>click-option-group</t>
+  </si>
+  <si>
+    <t>0.5.7</t>
+  </si>
+  <si>
+    <t>cloudsplaining</t>
+  </si>
+  <si>
+    <t>0.8.0</t>
+  </si>
+  <si>
+    <t>ConfigArgParse</t>
+  </si>
+  <si>
+    <t>45.0.5</t>
+  </si>
+  <si>
+    <t>10.5.0</t>
+  </si>
+  <si>
+    <t>deepmerge</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>detect-secrets</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>dpath</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Flask-Cors</t>
+  </si>
+  <si>
+    <t>Flask-Migrate</t>
+  </si>
+  <si>
+    <t>frozenlist</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>GitPython</t>
+  </si>
+  <si>
+    <t>3.1.44</t>
+  </si>
+  <si>
+    <t>Jinja</t>
+  </si>
+  <si>
+    <t>4.25.0</t>
+  </si>
+  <si>
+    <t>Mako</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>3.8.2</t>
+  </si>
+  <si>
+    <t>MarkupSafe</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>0.17.1</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>1.20.1</t>
+  </si>
+  <si>
+    <t>parse-type</t>
+  </si>
+  <si>
+    <t>policy-sentry</t>
+  </si>
+  <si>
+    <t>pycares</t>
+  </si>
+  <si>
+    <t>4.9.0</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>PyYAML</t>
+  </si>
+  <si>
+    <t>2.32.4</t>
+  </si>
+  <si>
+    <t>0.13.1</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>0.7.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>SQLAlchemy</t>
+  </si>
+  <si>
+    <t>2.0.41</t>
+  </si>
+  <si>
+    <t>tls-parser</t>
+  </si>
+  <si>
+    <t>types-setuptools</t>
+  </si>
+  <si>
+    <t>69.0.0.20240125</t>
+  </si>
+  <si>
+    <t>types-toml</t>
+  </si>
+  <si>
+    <t>0.10.8.20240310</t>
+  </si>
+  <si>
+    <t>4.14.1</t>
+  </si>
+  <si>
+    <t>urllib</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>xmltodict</t>
+  </si>
+  <si>
+    <t>0.14.2</t>
+  </si>
+  <si>
+    <t>yarl</t>
+  </si>
+  <si>
+    <t>compressed-rtf</t>
+  </si>
+  <si>
+    <t>1.0.7</t>
+  </si>
+  <si>
+    <t>msoffcrypto-tool</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>tzlocal</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>6.24.0</t>
+  </si>
+  <si>
+    <t>jsonpointer</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.7.2</t>
+  </si>
+  <si>
+    <t>1.24.3</t>
+  </si>
+  <si>
+    <t>2.10.0</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>5.10.0</t>
+  </si>
+  <si>
+    <t>pyautogui</t>
+  </si>
+  <si>
+    <t>0.9.53</t>
+  </si>
+  <si>
+    <t>pymsgbox</t>
+  </si>
+  <si>
+    <t>pyodbc</t>
+  </si>
+  <si>
+    <t>4.0.34</t>
+  </si>
+  <si>
+    <t>pywin</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>4.7.0</t>
+  </si>
+  <si>
+    <t>tinycss</t>
+  </si>
+  <si>
+    <t>webcolors</t>
+  </si>
+  <si>
+    <t>1.11.1</t>
+  </si>
+  <si>
+    <t>jupyter_core</t>
+  </si>
+  <si>
+    <t>5.8.1</t>
+  </si>
+  <si>
+    <t>codecov</t>
+  </si>
+  <si>
+    <t>2.1.13</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>7.10.7</t>
+  </si>
+  <si>
+    <t>cython</t>
+  </si>
+  <si>
+    <t>tox</t>
+  </si>
+  <si>
+    <t>4.30.0</t>
+  </si>
+  <si>
+    <t>gevent</t>
+  </si>
+  <si>
+    <t>25.9.1</t>
+  </si>
+  <si>
+    <t>backport</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>towncrier</t>
+  </si>
+  <si>
+    <t>25.8.0</t>
+  </si>
+  <si>
+    <t>pyperf</t>
+  </si>
+  <si>
+    <t>2.9.0</t>
+  </si>
+  <si>
+    <t>mypy</t>
+  </si>
+  <si>
+    <t>1.18.2</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>pytest-asyncio</t>
+  </si>
+  <si>
+    <t>pytest-cov</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>pytest-rerunfailures</t>
+  </si>
+  <si>
+    <t>16.0.1</t>
+  </si>
+  <si>
+    <t>ipython-pygments</t>
+  </si>
+  <si>
+    <t>tbump</t>
+  </si>
+  <si>
+    <t>6.11.0</t>
+  </si>
+  <si>
+    <t>contributors-txt</t>
+  </si>
+  <si>
+    <t>pytest-xdist</t>
+  </si>
+  <si>
+    <t>3.8.0</t>
+  </si>
+  <si>
+    <t>2025.9.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> importlib-resources</t>
+  </si>
+  <si>
+    <t>readme_renderer</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>twine</t>
+  </si>
+  <si>
+    <t>6.2.0</t>
+  </si>
+  <si>
+    <t>librt</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>pyright</t>
+  </si>
+  <si>
+    <t>1.1.406</t>
+  </si>
+  <si>
+    <t>exceptiongroup</t>
+  </si>
+  <si>
+    <t>backports.asyncio.runner</t>
+  </si>
+  <si>
+    <t>ruff</t>
+  </si>
+  <si>
+    <t>tox-uv</t>
+  </si>
+  <si>
+    <t>1.29.0</t>
+  </si>
+  <si>
+    <t>pallets-sphinx-themes</t>
+  </si>
+  <si>
+    <t>sphinx</t>
+  </si>
+  <si>
+    <t>8.2.3</t>
+  </si>
+  <si>
+    <t>sphinx-autobuild</t>
+  </si>
+  <si>
+    <t>2025.8.25</t>
+  </si>
+  <si>
+    <t>gha-update</t>
+  </si>
+  <si>
+    <t>pre-commit</t>
+  </si>
+  <si>
+    <t>pre-commit-uv</t>
+  </si>
+  <si>
+    <t>4.2.0</t>
+  </si>
+  <si>
+    <t>pytest-run-parallel</t>
+  </si>
+  <si>
+    <t>readme-renderer</t>
+  </si>
+  <si>
+    <t>25.6.0</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nodeenv</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>flake8-bugbear</t>
+  </si>
+  <si>
+    <t>24.12.12</t>
+  </si>
+  <si>
+    <t>flake8-pyi</t>
+  </si>
+  <si>
+    <t>25.5.0</t>
+  </si>
+  <si>
+    <t>uv</t>
+  </si>
+  <si>
+    <t>0.9.2</t>
+  </si>
+  <si>
+    <t>sphinx-notfound-page</t>
+  </si>
+  <si>
+    <t>9.6.0</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-applehelp</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-devhelp</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-htmlhelp</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-qthelp</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-serializinghtml</t>
+  </si>
+  <si>
+    <t>docutils</t>
+  </si>
+  <si>
+    <t>0.22.2</t>
+  </si>
+  <si>
+    <t>snowballstemmer</t>
+  </si>
+  <si>
+    <t>roman-numerals-py</t>
+  </si>
+  <si>
+    <t>0.48.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7813,8 +8490,22 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7839,8 +8530,20 @@
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -7848,17 +8551,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8163,11 +8932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A529"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -8178,7 +8947,7 @@
     <col min="10" max="11" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +8982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -8248,7 +9017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8283,7 +9052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -8318,7 +9087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -8353,7 +9122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8388,7 +9157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -8423,7 +9192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -8458,7 +9227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -8493,7 +9262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8528,7 +9297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -8563,7 +9332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -8598,7 +9367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -8633,7 +9402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -8668,7 +9437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -8703,7 +9472,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -8738,7 +9507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -8773,7 +9542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -8808,7 +9577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -8843,7 +9612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -8878,7 +9647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -8913,7 +9682,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -8948,7 +9717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -8983,7 +9752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -9018,7 +9787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -9053,7 +9822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -9088,7 +9857,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -9123,7 +9892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -9158,7 +9927,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -9193,7 +9962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>189</v>
       </c>
@@ -9228,7 +9997,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -9263,7 +10032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -9298,7 +10067,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -9333,7 +10102,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -9368,7 +10137,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -9403,7 +10172,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>221</v>
       </c>
@@ -9438,7 +10207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>229</v>
       </c>
@@ -9473,7 +10242,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>234</v>
       </c>
@@ -9508,7 +10277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -9543,7 +10312,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -9578,7 +10347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -9613,7 +10382,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -9648,7 +10417,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>261</v>
       </c>
@@ -9683,7 +10452,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>268</v>
       </c>
@@ -9718,7 +10487,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -9753,7 +10522,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -9788,7 +10557,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>288</v>
       </c>
@@ -9823,7 +10592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>295</v>
       </c>
@@ -9858,7 +10627,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -9893,7 +10662,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -9928,7 +10697,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>313</v>
       </c>
@@ -9963,7 +10732,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>320</v>
       </c>
@@ -9998,7 +10767,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>325</v>
       </c>
@@ -10033,7 +10802,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>330</v>
       </c>
@@ -10068,7 +10837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>330</v>
       </c>
@@ -10103,7 +10872,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>338</v>
       </c>
@@ -10138,7 +10907,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>342</v>
       </c>
@@ -10173,7 +10942,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>348</v>
       </c>
@@ -10208,7 +10977,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -10243,7 +11012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>357</v>
       </c>
@@ -10278,7 +11047,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>363</v>
       </c>
@@ -10313,7 +11082,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>367</v>
       </c>
@@ -10348,7 +11117,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -10383,7 +11152,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -10418,7 +11187,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -10453,7 +11222,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>392</v>
       </c>
@@ -10488,7 +11257,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>271</v>
       </c>
@@ -10523,7 +11292,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>403</v>
       </c>
@@ -10558,7 +11327,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -10593,7 +11362,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>415</v>
       </c>
@@ -10628,7 +11397,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>415</v>
       </c>
@@ -10663,7 +11432,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -10698,7 +11467,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>423</v>
       </c>
@@ -10733,7 +11502,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>428</v>
       </c>
@@ -10768,7 +11537,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>433</v>
       </c>
@@ -10803,7 +11572,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10838,7 +11607,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -10873,7 +11642,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>447</v>
       </c>
@@ -10908,7 +11677,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>452</v>
       </c>
@@ -10943,7 +11712,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>457</v>
       </c>
@@ -10978,7 +11747,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>463</v>
       </c>
@@ -11013,7 +11782,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -11048,7 +11817,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>471</v>
       </c>
@@ -11083,7 +11852,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>475</v>
       </c>
@@ -11118,7 +11887,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>483</v>
       </c>
@@ -11153,7 +11922,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>489</v>
       </c>
@@ -11188,7 +11957,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -11223,7 +11992,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>505</v>
       </c>
@@ -11258,7 +12027,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>510</v>
       </c>
@@ -11293,7 +12062,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>514</v>
       </c>
@@ -11328,7 +12097,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>522</v>
       </c>
@@ -11363,7 +12132,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>411</v>
       </c>
@@ -11398,7 +12167,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>530</v>
       </c>
@@ -11433,7 +12202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -11468,7 +12237,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>539</v>
       </c>
@@ -11503,7 +12272,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>547</v>
       </c>
@@ -11538,7 +12307,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>551</v>
       </c>
@@ -11573,7 +12342,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>557</v>
       </c>
@@ -11608,7 +12377,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>561</v>
       </c>
@@ -11643,7 +12412,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>561</v>
       </c>
@@ -11678,7 +12447,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>569</v>
       </c>
@@ -11713,7 +12482,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>573</v>
       </c>
@@ -11748,7 +12517,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>576</v>
       </c>
@@ -11783,7 +12552,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>580</v>
       </c>
@@ -11818,7 +12587,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>588</v>
       </c>
@@ -11853,7 +12622,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -11888,7 +12657,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>599</v>
       </c>
@@ -11923,7 +12692,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>606</v>
       </c>
@@ -11958,7 +12727,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>611</v>
       </c>
@@ -11993,7 +12762,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>616</v>
       </c>
@@ -12028,7 +12797,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>621</v>
       </c>
@@ -12063,7 +12832,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>626</v>
       </c>
@@ -12098,7 +12867,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>632</v>
       </c>
@@ -12133,7 +12902,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>637</v>
       </c>
@@ -12168,7 +12937,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>644</v>
       </c>
@@ -12203,7 +12972,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>649</v>
       </c>
@@ -12238,7 +13007,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>654</v>
       </c>
@@ -12273,7 +13042,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>660</v>
       </c>
@@ -12308,7 +13077,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>664</v>
       </c>
@@ -12343,7 +13112,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>671</v>
       </c>
@@ -12378,7 +13147,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>676</v>
       </c>
@@ -12413,7 +13182,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>680</v>
       </c>
@@ -12448,7 +13217,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>688</v>
       </c>
@@ -12483,7 +13252,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>695</v>
       </c>
@@ -12518,7 +13287,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -12553,7 +13322,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>704</v>
       </c>
@@ -12588,7 +13357,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>708</v>
       </c>
@@ -12623,7 +13392,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>712</v>
       </c>
@@ -12658,7 +13427,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>720</v>
       </c>
@@ -12693,7 +13462,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>727</v>
       </c>
@@ -12728,7 +13497,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>732</v>
       </c>
@@ -12763,7 +13532,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>738</v>
       </c>
@@ -12798,7 +13567,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>746</v>
       </c>
@@ -12833,7 +13602,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>746</v>
       </c>
@@ -12868,7 +13637,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>753</v>
       </c>
@@ -12903,7 +13672,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>757</v>
       </c>
@@ -12938,7 +13707,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>764</v>
       </c>
@@ -12973,7 +13742,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>760</v>
       </c>
@@ -13008,7 +13777,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>773</v>
       </c>
@@ -13043,7 +13812,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>780</v>
       </c>
@@ -13078,7 +13847,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>785</v>
       </c>
@@ -13113,7 +13882,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>789</v>
       </c>
@@ -13148,7 +13917,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>796</v>
       </c>
@@ -13183,7 +13952,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>801</v>
       </c>
@@ -13218,7 +13987,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>809</v>
       </c>
@@ -13253,7 +14022,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>814</v>
       </c>
@@ -13288,7 +14057,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>818</v>
       </c>
@@ -13323,7 +14092,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>823</v>
       </c>
@@ -13358,7 +14127,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>829</v>
       </c>
@@ -13393,7 +14162,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>835</v>
       </c>
@@ -13428,7 +14197,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>839</v>
       </c>
@@ -13463,7 +14232,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>842</v>
       </c>
@@ -13498,7 +14267,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>846</v>
       </c>
@@ -13533,7 +14302,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>851</v>
       </c>
@@ -13568,7 +14337,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>857</v>
       </c>
@@ -13603,7 +14372,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>863</v>
       </c>
@@ -13638,7 +14407,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>868</v>
       </c>
@@ -13673,7 +14442,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>874</v>
       </c>
@@ -13708,7 +14477,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>878</v>
       </c>
@@ -13743,7 +14512,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>885</v>
       </c>
@@ -13778,7 +14547,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>881</v>
       </c>
@@ -13813,7 +14582,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>894</v>
       </c>
@@ -13848,7 +14617,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>899</v>
       </c>
@@ -13883,7 +14652,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>904</v>
       </c>
@@ -13918,7 +14687,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>909</v>
       </c>
@@ -13953,7 +14722,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>914</v>
       </c>
@@ -13988,7 +14757,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>919</v>
       </c>
@@ -14023,7 +14792,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>923</v>
       </c>
@@ -14058,7 +14827,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>927</v>
       </c>
@@ -14093,7 +14862,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>932</v>
       </c>
@@ -14128,7 +14897,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>937</v>
       </c>
@@ -14163,7 +14932,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>944</v>
       </c>
@@ -14198,7 +14967,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>948</v>
       </c>
@@ -14233,7 +15002,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>955</v>
       </c>
@@ -14268,7 +15037,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>960</v>
       </c>
@@ -14303,7 +15072,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>960</v>
       </c>
@@ -14338,7 +15107,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>960</v>
       </c>
@@ -14373,7 +15142,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>969</v>
       </c>
@@ -14408,7 +15177,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>974</v>
       </c>
@@ -14443,7 +15212,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>978</v>
       </c>
@@ -14478,7 +15247,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>984</v>
       </c>
@@ -14513,7 +15282,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>990</v>
       </c>
@@ -14548,7 +15317,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>995</v>
       </c>
@@ -14583,7 +15352,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1000</v>
       </c>
@@ -14618,7 +15387,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1004</v>
       </c>
@@ -14653,7 +15422,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1009</v>
       </c>
@@ -14688,7 +15457,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1015</v>
       </c>
@@ -14723,7 +15492,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1023</v>
       </c>
@@ -14758,7 +15527,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1023</v>
       </c>
@@ -14793,7 +15562,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1029</v>
       </c>
@@ -14828,7 +15597,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1035</v>
       </c>
@@ -14863,7 +15632,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1040</v>
       </c>
@@ -14898,7 +15667,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1044</v>
       </c>
@@ -14933,7 +15702,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1048</v>
       </c>
@@ -14968,7 +15737,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1054</v>
       </c>
@@ -15003,7 +15772,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1054</v>
       </c>
@@ -15038,7 +15807,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1062</v>
       </c>
@@ -15073,7 +15842,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1068</v>
       </c>
@@ -15108,7 +15877,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1075</v>
       </c>
@@ -15143,7 +15912,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1082</v>
       </c>
@@ -15178,7 +15947,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1087</v>
       </c>
@@ -15213,7 +15982,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1093</v>
       </c>
@@ -15248,7 +16017,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1097</v>
       </c>
@@ -15283,7 +16052,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1102</v>
       </c>
@@ -15318,7 +16087,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1108</v>
       </c>
@@ -15353,7 +16122,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>333</v>
       </c>
@@ -15388,7 +16157,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1116</v>
       </c>
@@ -15423,7 +16192,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1121</v>
       </c>
@@ -15458,7 +16227,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1125</v>
       </c>
@@ -15493,7 +16262,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1130</v>
       </c>
@@ -15528,7 +16297,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1136</v>
       </c>
@@ -15563,7 +16332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1139</v>
       </c>
@@ -15598,7 +16367,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1145</v>
       </c>
@@ -15633,7 +16402,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1150</v>
       </c>
@@ -15668,7 +16437,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1157</v>
       </c>
@@ -15703,7 +16472,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1157</v>
       </c>
@@ -15738,7 +16507,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1161</v>
       </c>
@@ -15773,7 +16542,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1168</v>
       </c>
@@ -15808,7 +16577,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1175</v>
       </c>
@@ -15843,7 +16612,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1183</v>
       </c>
@@ -15878,7 +16647,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1188</v>
       </c>
@@ -15913,7 +16682,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1194</v>
       </c>
@@ -15948,7 +16717,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>691</v>
       </c>
@@ -15983,7 +16752,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1206</v>
       </c>
@@ -16018,7 +16787,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1210</v>
       </c>
@@ -16053,7 +16822,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1215</v>
       </c>
@@ -16088,7 +16857,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1220</v>
       </c>
@@ -16123,7 +16892,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1224</v>
       </c>
@@ -16158,7 +16927,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1230</v>
       </c>
@@ -16193,7 +16962,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1234</v>
       </c>
@@ -16228,7 +16997,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1238</v>
       </c>
@@ -16263,7 +17032,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1243</v>
       </c>
@@ -16298,7 +17067,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1249</v>
       </c>
@@ -16333,7 +17102,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1254</v>
       </c>
@@ -16368,7 +17137,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1262</v>
       </c>
@@ -16403,7 +17172,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1268</v>
       </c>
@@ -16438,7 +17207,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1276</v>
       </c>
@@ -16473,7 +17242,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1280</v>
       </c>
@@ -16508,7 +17277,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1285</v>
       </c>
@@ -16543,7 +17312,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1289</v>
       </c>
@@ -16578,7 +17347,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1292</v>
       </c>
@@ -16613,7 +17382,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1297</v>
       </c>
@@ -16648,7 +17417,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1302</v>
       </c>
@@ -16683,7 +17452,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1307</v>
       </c>
@@ -16718,7 +17487,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1311</v>
       </c>
@@ -16753,7 +17522,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1317</v>
       </c>
@@ -16788,7 +17557,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1322</v>
       </c>
@@ -16823,7 +17592,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1322</v>
       </c>
@@ -16858,7 +17627,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1327</v>
       </c>
@@ -16893,7 +17662,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1333</v>
       </c>
@@ -16928,7 +17697,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>792</v>
       </c>
@@ -16963,7 +17732,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1341</v>
       </c>
@@ -16998,7 +17767,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>777</v>
       </c>
@@ -17033,7 +17802,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1349</v>
       </c>
@@ -17068,7 +17837,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1355</v>
       </c>
@@ -17103,7 +17872,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1359</v>
       </c>
@@ -17138,7 +17907,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1363</v>
       </c>
@@ -17173,7 +17942,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1370</v>
       </c>
@@ -17208,7 +17977,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1374</v>
       </c>
@@ -17243,7 +18012,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1379</v>
       </c>
@@ -17278,7 +18047,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1379</v>
       </c>
@@ -17313,7 +18082,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1388</v>
       </c>
@@ -17348,7 +18117,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1393</v>
       </c>
@@ -17383,7 +18152,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1397</v>
       </c>
@@ -17418,7 +18187,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1401</v>
       </c>
@@ -17453,7 +18222,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1406</v>
       </c>
@@ -17488,7 +18257,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1410</v>
       </c>
@@ -17523,7 +18292,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>501</v>
       </c>
@@ -17558,7 +18327,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1416</v>
       </c>
@@ -17593,7 +18362,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1420</v>
       </c>
@@ -17628,7 +18397,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1424</v>
       </c>
@@ -17663,7 +18432,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1429</v>
       </c>
@@ -17698,7 +18467,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1434</v>
       </c>
@@ -17733,7 +18502,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1438</v>
       </c>
@@ -17768,7 +18537,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1443</v>
       </c>
@@ -17803,7 +18572,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1450</v>
       </c>
@@ -17838,7 +18607,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1458</v>
       </c>
@@ -17873,7 +18642,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1465</v>
       </c>
@@ -17908,7 +18677,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1470</v>
       </c>
@@ -17943,7 +18712,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1475</v>
       </c>
@@ -17978,7 +18747,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1478</v>
       </c>
@@ -18013,7 +18782,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1483</v>
       </c>
@@ -18048,7 +18817,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1490</v>
       </c>
@@ -18083,7 +18852,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1495</v>
       </c>
@@ -18118,7 +18887,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1495</v>
       </c>
@@ -18153,7 +18922,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1501</v>
       </c>
@@ -18188,7 +18957,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1508</v>
       </c>
@@ -18223,7 +18992,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1513</v>
       </c>
@@ -18258,7 +19027,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1513</v>
       </c>
@@ -18293,7 +19062,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1521</v>
       </c>
@@ -18328,7 +19097,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1524</v>
       </c>
@@ -18363,7 +19132,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1524</v>
       </c>
@@ -18398,7 +19167,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1525</v>
       </c>
@@ -18433,7 +19202,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1531</v>
       </c>
@@ -18468,7 +19237,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1536</v>
       </c>
@@ -18503,7 +19272,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1540</v>
       </c>
@@ -18538,7 +19307,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1545</v>
       </c>
@@ -18573,7 +19342,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1550</v>
       </c>
@@ -18608,7 +19377,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1554</v>
       </c>
@@ -18643,7 +19412,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1558</v>
       </c>
@@ -18678,7 +19447,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1563</v>
       </c>
@@ -18713,7 +19482,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1567</v>
       </c>
@@ -18748,7 +19517,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1573</v>
       </c>
@@ -18783,7 +19552,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1578</v>
       </c>
@@ -18818,7 +19587,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1583</v>
       </c>
@@ -18853,7 +19622,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1590</v>
       </c>
@@ -18888,7 +19657,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1596</v>
       </c>
@@ -18923,7 +19692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1598</v>
       </c>
@@ -18958,7 +19727,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1603</v>
       </c>
@@ -18993,7 +19762,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1610</v>
       </c>
@@ -19028,7 +19797,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1616</v>
       </c>
@@ -19063,7 +19832,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1620</v>
       </c>
@@ -19098,7 +19867,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1627</v>
       </c>
@@ -19133,7 +19902,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1634</v>
       </c>
@@ -19168,7 +19937,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1637</v>
       </c>
@@ -19203,7 +19972,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1641</v>
       </c>
@@ -19238,7 +20007,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1647</v>
       </c>
@@ -19273,7 +20042,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1651</v>
       </c>
@@ -19308,7 +20077,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1655</v>
       </c>
@@ -19343,7 +20112,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1659</v>
       </c>
@@ -19378,7 +20147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1661</v>
       </c>
@@ -19413,7 +20182,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1666</v>
       </c>
@@ -19448,7 +20217,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1671</v>
       </c>
@@ -19483,7 +20252,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1676</v>
       </c>
@@ -19518,7 +20287,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1680</v>
       </c>
@@ -19553,7 +20322,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1680</v>
       </c>
@@ -19588,7 +20357,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1687</v>
       </c>
@@ -19623,7 +20392,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1693</v>
       </c>
@@ -19658,7 +20427,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1699</v>
       </c>
@@ -19693,7 +20462,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1704</v>
       </c>
@@ -19728,7 +20497,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1709</v>
       </c>
@@ -19763,7 +20532,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1713</v>
       </c>
@@ -19798,7 +20567,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1713</v>
       </c>
@@ -19833,7 +20602,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1713</v>
       </c>
@@ -19868,7 +20637,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1723</v>
       </c>
@@ -19903,7 +20672,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1728</v>
       </c>
@@ -19938,7 +20707,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1732</v>
       </c>
@@ -19973,7 +20742,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1738</v>
       </c>
@@ -20008,7 +20777,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1742</v>
       </c>
@@ -20043,7 +20812,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1748</v>
       </c>
@@ -20078,7 +20847,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1751</v>
       </c>
@@ -20113,7 +20882,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1756</v>
       </c>
@@ -20148,7 +20917,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1756</v>
       </c>
@@ -20183,7 +20952,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1762</v>
       </c>
@@ -20218,7 +20987,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1767</v>
       </c>
@@ -20253,7 +21022,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1771</v>
       </c>
@@ -20288,7 +21057,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1775</v>
       </c>
@@ -20323,7 +21092,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1782</v>
       </c>
@@ -20358,7 +21127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1782</v>
       </c>
@@ -20393,7 +21162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1788</v>
       </c>
@@ -20428,7 +21197,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1793</v>
       </c>
@@ -20463,7 +21232,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1793</v>
       </c>
@@ -20498,7 +21267,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1797</v>
       </c>
@@ -20533,7 +21302,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1801</v>
       </c>
@@ -20568,7 +21337,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1806</v>
       </c>
@@ -20603,7 +21372,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1810</v>
       </c>
@@ -20638,7 +21407,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1815</v>
       </c>
@@ -20673,7 +21442,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1820</v>
       </c>
@@ -20708,7 +21477,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1825</v>
       </c>
@@ -20743,7 +21512,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1829</v>
       </c>
@@ -20778,7 +21547,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1834</v>
       </c>
@@ -20813,7 +21582,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1838</v>
       </c>
@@ -20848,7 +21617,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1843</v>
       </c>
@@ -20883,7 +21652,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1847</v>
       </c>
@@ -20918,7 +21687,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1852</v>
       </c>
@@ -20953,7 +21722,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1856</v>
       </c>
@@ -20988,7 +21757,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1861</v>
       </c>
@@ -21023,7 +21792,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1865</v>
       </c>
@@ -21058,7 +21827,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1870</v>
       </c>
@@ -21093,7 +21862,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1874</v>
       </c>
@@ -21128,7 +21897,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1877</v>
       </c>
@@ -21163,7 +21932,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1882</v>
       </c>
@@ -21198,7 +21967,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1889</v>
       </c>
@@ -21233,7 +22002,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1897</v>
       </c>
@@ -21268,7 +22037,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1900</v>
       </c>
@@ -21303,7 +22072,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1904</v>
       </c>
@@ -21338,7 +22107,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1910</v>
       </c>
@@ -21373,7 +22142,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1914</v>
       </c>
@@ -21408,7 +22177,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1919</v>
       </c>
@@ -21443,7 +22212,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1922</v>
       </c>
@@ -21478,7 +22247,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1926</v>
       </c>
@@ -21513,7 +22282,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1930</v>
       </c>
@@ -21548,7 +22317,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1935</v>
       </c>
@@ -21583,7 +22352,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1942</v>
       </c>
@@ -21618,7 +22387,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1947</v>
       </c>
@@ -21653,7 +22422,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1951</v>
       </c>
@@ -21688,7 +22457,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1956</v>
       </c>
@@ -21723,7 +22492,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1959</v>
       </c>
@@ -21758,7 +22527,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1962</v>
       </c>
@@ -21793,7 +22562,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1969</v>
       </c>
@@ -21828,7 +22597,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1972</v>
       </c>
@@ -21863,7 +22632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1976</v>
       </c>
@@ -21898,7 +22667,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1981</v>
       </c>
@@ -21933,7 +22702,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1986</v>
       </c>
@@ -21968,7 +22737,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1990</v>
       </c>
@@ -22003,7 +22772,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1994</v>
       </c>
@@ -22038,7 +22807,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1997</v>
       </c>
@@ -22073,7 +22842,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>2002</v>
       </c>
@@ -22108,7 +22877,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>2002</v>
       </c>
@@ -22143,7 +22912,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>2008</v>
       </c>
@@ -22178,7 +22947,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>2012</v>
       </c>
@@ -22213,7 +22982,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>2016</v>
       </c>
@@ -22248,7 +23017,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>2020</v>
       </c>
@@ -22283,7 +23052,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>2025</v>
       </c>
@@ -22318,7 +23087,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>2029</v>
       </c>
@@ -22353,7 +23122,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>2033</v>
       </c>
@@ -22388,7 +23157,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>2037</v>
       </c>
@@ -22423,7 +23192,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>2042</v>
       </c>
@@ -22458,7 +23227,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>2046</v>
       </c>
@@ -22493,7 +23262,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>2050</v>
       </c>
@@ -22528,7 +23297,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>2055</v>
       </c>
@@ -22563,7 +23332,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>2060</v>
       </c>
@@ -22598,7 +23367,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>2065</v>
       </c>
@@ -22633,7 +23402,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>2069</v>
       </c>
@@ -22668,7 +23437,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>2073</v>
       </c>
@@ -22703,7 +23472,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>2078</v>
       </c>
@@ -22738,7 +23507,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>2082</v>
       </c>
@@ -22773,7 +23542,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>2087</v>
       </c>
@@ -22808,7 +23577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>2089</v>
       </c>
@@ -22843,7 +23612,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>2095</v>
       </c>
@@ -22878,7 +23647,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>2095</v>
       </c>
@@ -22913,7 +23682,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2100</v>
       </c>
@@ -22948,7 +23717,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2107</v>
       </c>
@@ -22983,7 +23752,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2111</v>
       </c>
@@ -23018,7 +23787,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2118</v>
       </c>
@@ -23053,7 +23822,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2125</v>
       </c>
@@ -23088,7 +23857,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2129</v>
       </c>
@@ -23123,7 +23892,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>2134</v>
       </c>
@@ -23158,7 +23927,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2140</v>
       </c>
@@ -23193,7 +23962,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>2144</v>
       </c>
@@ -23228,7 +23997,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>2149</v>
       </c>
@@ -23263,7 +24032,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>2154</v>
       </c>
@@ -23298,7 +24067,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>2158</v>
       </c>
@@ -23333,7 +24102,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>2164</v>
       </c>
@@ -23368,7 +24137,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>2169</v>
       </c>
@@ -23403,7 +24172,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>2174</v>
       </c>
@@ -23438,7 +24207,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>2178</v>
       </c>
@@ -23473,7 +24242,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2184</v>
       </c>
@@ -23508,7 +24277,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>2188</v>
       </c>
@@ -23543,7 +24312,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>2192</v>
       </c>
@@ -23578,7 +24347,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>2196</v>
       </c>
@@ -23613,7 +24382,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>2196</v>
       </c>
@@ -23648,7 +24417,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>2204</v>
       </c>
@@ -23683,7 +24452,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>2207</v>
       </c>
@@ -23718,7 +24487,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>2211</v>
       </c>
@@ -23753,7 +24522,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>2216</v>
       </c>
@@ -23788,7 +24557,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>2223</v>
       </c>
@@ -23823,7 +24592,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>2227</v>
       </c>
@@ -23858,7 +24627,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>2227</v>
       </c>
@@ -23893,7 +24662,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>2233</v>
       </c>
@@ -23928,7 +24697,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>2238</v>
       </c>
@@ -23963,7 +24732,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>2243</v>
       </c>
@@ -23998,7 +24767,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>2248</v>
       </c>
@@ -24033,7 +24802,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>2254</v>
       </c>
@@ -24068,7 +24837,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>2260</v>
       </c>
@@ -24103,7 +24872,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>2265</v>
       </c>
@@ -24138,7 +24907,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>2270</v>
       </c>
@@ -24173,7 +24942,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>2275</v>
       </c>
@@ -24208,7 +24977,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>2279</v>
       </c>
@@ -24243,7 +25012,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>2284</v>
       </c>
@@ -24278,7 +25047,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>2288</v>
       </c>
@@ -24313,7 +25082,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>2295</v>
       </c>
@@ -24348,7 +25117,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>2302</v>
       </c>
@@ -24383,7 +25152,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2305</v>
       </c>
@@ -24418,7 +25187,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1965</v>
       </c>
@@ -24453,7 +25222,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2315</v>
       </c>
@@ -24488,7 +25257,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>2321</v>
       </c>
@@ -24523,7 +25292,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2321</v>
       </c>
@@ -24558,7 +25327,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2329</v>
       </c>
@@ -24593,7 +25362,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>2332</v>
       </c>
@@ -24628,7 +25397,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>2336</v>
       </c>
@@ -24663,7 +25432,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>2340</v>
       </c>
@@ -24698,7 +25467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>2345</v>
       </c>
@@ -24733,7 +25502,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>2348</v>
       </c>
@@ -24768,7 +25537,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>2351</v>
       </c>
@@ -24803,7 +25572,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>2356</v>
       </c>
@@ -24838,7 +25607,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>2359</v>
       </c>
@@ -24873,7 +25642,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>2365</v>
       </c>
@@ -24908,7 +25677,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>2370</v>
       </c>
@@ -24943,7 +25712,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>2374</v>
       </c>
@@ -24978,7 +25747,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>2379</v>
       </c>
@@ -25013,7 +25782,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>2384</v>
       </c>
@@ -25048,7 +25817,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>2384</v>
       </c>
@@ -25083,7 +25852,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>2391</v>
       </c>
@@ -25118,7 +25887,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>2397</v>
       </c>
@@ -25153,7 +25922,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2402</v>
       </c>
@@ -25188,7 +25957,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2409</v>
       </c>
@@ -25223,7 +25992,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2413</v>
       </c>
@@ -25258,7 +26027,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2418</v>
       </c>
@@ -25293,7 +26062,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2425</v>
       </c>
@@ -25328,7 +26097,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2430</v>
       </c>
@@ -25363,7 +26132,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2436</v>
       </c>
@@ -25398,7 +26167,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2439</v>
       </c>
@@ -25433,7 +26202,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2444</v>
       </c>
@@ -25468,7 +26237,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2449</v>
       </c>
@@ -25503,7 +26272,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2452</v>
       </c>
@@ -25538,7 +26307,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>2456</v>
       </c>
@@ -25573,7 +26342,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>2460</v>
       </c>
@@ -25608,7 +26377,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2465</v>
       </c>
@@ -25643,7 +26412,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2469</v>
       </c>
@@ -25678,7 +26447,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2474</v>
       </c>
@@ -25713,7 +26482,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>2479</v>
       </c>
@@ -25748,7 +26517,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2484</v>
       </c>
@@ -25783,7 +26552,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2489</v>
       </c>
@@ -25818,7 +26587,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2493</v>
       </c>
@@ -25853,7 +26622,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2497</v>
       </c>
@@ -25888,7 +26657,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2501</v>
       </c>
@@ -25923,7 +26692,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2505</v>
       </c>
@@ -25958,7 +26727,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>298</v>
       </c>
@@ -25993,7 +26762,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2514</v>
       </c>
@@ -26028,7 +26797,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2517</v>
       </c>
@@ -26063,7 +26832,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2517</v>
       </c>
@@ -26098,7 +26867,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>2521</v>
       </c>
@@ -26133,7 +26902,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>2525</v>
       </c>
@@ -26168,7 +26937,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>2528</v>
       </c>
@@ -26203,7 +26972,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>2532</v>
       </c>
@@ -26238,7 +27007,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>2538</v>
       </c>
@@ -26273,7 +27042,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>2542</v>
       </c>
@@ -26308,7 +27077,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>2546</v>
       </c>
@@ -26343,7 +27112,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2550</v>
       </c>
@@ -26378,7 +27147,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>2556</v>
       </c>
@@ -26413,7 +27182,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>2561</v>
       </c>
@@ -26448,7 +27217,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>2566</v>
       </c>
@@ -26483,7 +27252,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>2570</v>
       </c>
@@ -26518,7 +27287,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>2574</v>
       </c>
@@ -26553,7 +27322,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>2578</v>
       </c>
@@ -26588,7 +27357,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>602</v>
       </c>
@@ -26623,7 +27392,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>602</v>
       </c>
@@ -26658,7 +27427,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>2585</v>
       </c>
@@ -26696,5 +27465,2466 @@
   </sheetData>
   <autoFilter ref="A1:K529" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59718068-60B3-4E71-B383-A58633B7797A}">
+  <dimension ref="A1:C222"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A222"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="9" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="9" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="11" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="11" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="11" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="11" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="11" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="11" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="11" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="11" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="11" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="11" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="7" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="9" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="11" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="11" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="7" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="11" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="11" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="11" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="9" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="9" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="9" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="9" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>